--- a/biology/Histoire de la zoologie et de la botanique/Eugène_Munroe/Eugène_Munroe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugène_Munroe/Eugène_Munroe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Munroe</t>
+          <t>Eugène_Munroe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugène Munroe est un entomologiste canadien, né le 8 septembre 1919 à Détroit dans le Michigan qui a émigré au Canada avec ses parents en 1927 et qui est mort le 31 mai 2008 en Ontario au Canada.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Munroe</t>
+          <t>Eugène_Munroe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Études et travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il suit des études d'entomologie à la McGill University qu'il termine par son travail sur la biogéographie des lépidoptères indiens.
 Il travaille au Département Canadien de l'Agriculture où il continue ses recherches
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Munroe</t>
+          <t>Eugène_Munroe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Munroe, E. G. 1948. The geographical distribution of butterflies in the West Indies. Ph.D. thesis. Cornell University, Ithaca, New York.
 Munroe, E. G. 1953. The size of island faunas. Proceedings of the 7th Pacific Science Congress, Zoology, 4: 52-53.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Munroe</t>
+          <t>Eugène_Munroe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2004 la Lepidopterists' Society lui décerne la médaille Karl Jordan.
 </t>
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eug%C3%A8ne_Munroe</t>
+          <t>Eugène_Munroe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Biographie d'Eugène Munroe
 autre biographie
